--- a/2d_dataset_final.xlsx
+++ b/2d_dataset_final.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26903"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_bff\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schai\OneDrive\Desktop\Course Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2F287D8-79A4-4C40-B003-CF614A4E4FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB1B085-A2C5-4840-8E1A-2ECF269CC52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="367">
   <si>
     <t>model_name</t>
   </si>
@@ -54,69 +41,6 @@
   </si>
   <si>
     <t>anish</t>
-  </si>
-  <si>
-    <t>nose</t>
-  </si>
-  <si>
-    <t>left eye</t>
-  </si>
-  <si>
-    <t>right eye</t>
-  </si>
-  <si>
-    <t>left ear</t>
-  </si>
-  <si>
-    <t>right ear</t>
-  </si>
-  <si>
-    <t>mouth left</t>
-  </si>
-  <si>
-    <t>mouth right</t>
-  </si>
-  <si>
-    <t>left shoulder</t>
-  </si>
-  <si>
-    <t>right shoulder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">left elbow </t>
-  </si>
-  <si>
-    <t>right elbow</t>
-  </si>
-  <si>
-    <t>left wrist</t>
-  </si>
-  <si>
-    <t>right wrist</t>
-  </si>
-  <si>
-    <t>left hip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right hip </t>
-  </si>
-  <si>
-    <t>left knee</t>
-  </si>
-  <si>
-    <t>right knee</t>
-  </si>
-  <si>
-    <t>left ankle</t>
-  </si>
-  <si>
-    <t>right ankle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">left foot </t>
-  </si>
-  <si>
-    <t>right foot</t>
   </si>
   <si>
     <t>don</t>
@@ -1203,7 +1127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2037,15 +1961,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I358"/>
+  <dimension ref="A1:H358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="I248" sqref="I248"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="H208" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2065,7 +1989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2087,11 +2011,8 @@
       <c r="G2">
         <v>0.1537</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2113,11 +2034,8 @@
       <c r="G3">
         <v>0.12690000000000001</v>
       </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2139,11 +2057,8 @@
       <c r="G4">
         <v>0.12889999999999999</v>
       </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2165,11 +2080,8 @@
       <c r="G5">
         <v>8.8400000000000006E-2</v>
       </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2191,11 +2103,8 @@
       <c r="G6">
         <v>0.46899999999999997</v>
       </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2217,11 +2126,8 @@
       <c r="G7">
         <v>0.14269999999999999</v>
       </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2243,11 +2149,8 @@
       <c r="G8">
         <v>0.1459</v>
       </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2269,11 +2172,8 @@
       <c r="G9">
         <v>0.317</v>
       </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2295,11 +2195,8 @@
       <c r="G10">
         <v>6.25E-2</v>
       </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2321,11 +2218,8 @@
       <c r="G11">
         <v>-2.7799999999999998E-2</v>
       </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2347,11 +2241,8 @@
       <c r="G12">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2373,11 +2264,8 @@
       <c r="G13">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2399,11 +2287,8 @@
       <c r="G14">
         <v>0.90200000000000002</v>
       </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2425,11 +2310,8 @@
       <c r="G15">
         <v>0.125</v>
       </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2451,11 +2333,8 @@
       <c r="G16">
         <v>0.1016</v>
       </c>
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2477,11 +2356,8 @@
       <c r="G17">
         <v>2.12E-2</v>
       </c>
-      <c r="H17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2503,11 +2379,8 @@
       <c r="G18">
         <v>2.76E-2</v>
       </c>
-      <c r="H18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2529,11 +2402,8 @@
       <c r="G19">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="H19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2555,11 +2425,8 @@
       <c r="G20">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="H20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2581,11 +2448,8 @@
       <c r="G21">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="H21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2607,16 +2471,13 @@
       <c r="G22">
         <v>0.1361</v>
       </c>
-      <c r="H22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>0.51959999999999995</v>
@@ -2634,12 +2495,12 @@
         <v>0.1207</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>0.53810000000000002</v>
@@ -2657,12 +2518,12 @@
         <v>7.85E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>0.49419999999999997</v>
@@ -2671,21 +2532,21 @@
         <v>9.01E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>0.55659999999999998</v>
@@ -2694,21 +2555,21 @@
         <v>0.10050000000000001</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>0.46879999999999999</v>
@@ -2717,21 +2578,21 @@
         <v>0.10050000000000001</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>0.53349999999999997</v>
@@ -2740,21 +2601,21 @@
         <v>0.12820000000000001</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>0.49880000000000002</v>
@@ -2763,21 +2624,21 @@
         <v>0.1265</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <v>0.62119999999999997</v>
@@ -2786,21 +2647,21 @@
         <v>0.21659999999999999</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C31">
         <v>0.3972</v>
@@ -2809,21 +2670,21 @@
         <v>0.2253</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>0.68130000000000002</v>
@@ -2832,21 +2693,21 @@
         <v>0.34489999999999998</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>0.33950000000000002</v>
@@ -2855,21 +2716,21 @@
         <v>0.36220000000000002</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>0.71819999999999995</v>
@@ -2878,21 +2739,21 @@
         <v>0.4662</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>0.31180000000000002</v>
@@ -2901,21 +2762,21 @@
         <v>0.49049999999999999</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>0.57040000000000002</v>
@@ -2924,21 +2785,21 @@
         <v>0.45929999999999999</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>0.44800000000000001</v>
@@ -2947,21 +2808,21 @@
         <v>0.45579999999999998</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>0.57040000000000002</v>
@@ -2970,21 +2831,21 @@
         <v>0.64119999999999999</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>0.44340000000000002</v>
@@ -2993,21 +2854,21 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>0.59350000000000003</v>
@@ -3016,21 +2877,21 @@
         <v>0.79379999999999995</v>
       </c>
       <c r="E40" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C41">
         <v>0.42959999999999998</v>
@@ -3039,21 +2900,21 @@
         <v>0.7903</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>0.57509999999999994</v>
@@ -3062,21 +2923,21 @@
         <v>0.81110000000000004</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C43">
         <v>0.40179999999999999</v>
@@ -3085,21 +2946,21 @@
         <v>0.85440000000000005</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="G43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C44">
         <v>0.52190000000000003</v>
@@ -3108,21 +2969,21 @@
         <v>0.1196</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C45">
         <v>0.54969999999999997</v>
@@ -3131,21 +2992,21 @@
         <v>0.1023</v>
       </c>
       <c r="E45" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>0.49880000000000002</v>
@@ -3154,21 +3015,21 @@
         <v>0.104</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F46" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C47">
         <v>0.57269999999999999</v>
@@ -3177,21 +3038,21 @@
         <v>0.1109</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C48">
         <v>0.47810000000000002</v>
@@ -3200,21 +3061,21 @@
         <v>0.11609999999999999</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C49">
         <v>0.54269999999999996</v>
@@ -3223,21 +3084,21 @@
         <v>0.1421</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C50">
         <v>0.50580000000000003</v>
@@ -3246,21 +3107,21 @@
         <v>0.1404</v>
       </c>
       <c r="E50" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="G50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C51">
         <v>0.63970000000000005</v>
@@ -3269,21 +3130,21 @@
         <v>0.2374</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C52">
         <v>0.4088</v>
@@ -3292,21 +3153,21 @@
         <v>0.23050000000000001</v>
       </c>
       <c r="E52" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C53">
         <v>0.72519999999999996</v>
@@ -3315,21 +3176,21 @@
         <v>0.34489999999999998</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C54">
         <v>0.30020000000000002</v>
@@ -3338,21 +3199,21 @@
         <v>0.33800000000000002</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C55">
         <v>0.76670000000000005</v>
@@ -3361,21 +3222,21 @@
         <v>0.45579999999999998</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C56">
         <v>0.2656</v>
@@ -3384,21 +3245,21 @@
         <v>0.4541</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C57">
         <v>0.56579999999999997</v>
@@ -3407,21 +3268,21 @@
         <v>0.49049999999999999</v>
       </c>
       <c r="E57" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G57" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C58">
         <v>0.45269999999999999</v>
@@ -3430,21 +3291,21 @@
         <v>0.48699999999999999</v>
       </c>
       <c r="E58" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F58" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C59">
         <v>0.55430000000000001</v>
@@ -3453,21 +3314,21 @@
         <v>0.67069999999999996</v>
       </c>
       <c r="E59" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C60">
         <v>0.45729999999999998</v>
@@ -3476,21 +3337,21 @@
         <v>0.66900000000000004</v>
       </c>
       <c r="E60" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C61">
         <v>0.55659999999999998</v>
@@ -3499,21 +3360,21 @@
         <v>0.81630000000000003</v>
       </c>
       <c r="E61" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="G61" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C62">
         <v>0.46189999999999998</v>
@@ -3522,21 +3383,21 @@
         <v>0.81459999999999999</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="G62" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C63">
         <v>0.54039999999999999</v>
@@ -3545,21 +3406,21 @@
         <v>0.83020000000000005</v>
       </c>
       <c r="E63" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G63" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C64">
         <v>0.45269999999999999</v>
@@ -3568,21 +3429,21 @@
         <v>0.8891</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="G64" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C65">
         <v>0.4758</v>
@@ -3591,21 +3452,21 @@
         <v>0.1144</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="G65" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C66">
         <v>0.4919</v>
@@ -3614,21 +3475,21 @@
         <v>0.1023</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C67">
         <v>0.45029999999999998</v>
@@ -3637,21 +3498,21 @@
         <v>0.1023</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C68">
         <v>0.51039999999999996</v>
@@ -3660,21 +3521,21 @@
         <v>0.1144</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C69">
         <v>0.42959999999999998</v>
@@ -3683,21 +3544,21 @@
         <v>0.1144</v>
       </c>
       <c r="E69" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C70">
         <v>0.48959999999999998</v>
@@ -3706,21 +3567,21 @@
         <v>0.13519999999999999</v>
       </c>
       <c r="E70" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G70" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C71">
         <v>0.45729999999999998</v>
@@ -3729,21 +3590,21 @@
         <v>0.13339999999999999</v>
       </c>
       <c r="E71" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="G71" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C72">
         <v>0.58199999999999996</v>
@@ -3752,21 +3613,21 @@
         <v>0.23569999999999999</v>
       </c>
       <c r="E72" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F72" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="G72" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C73">
         <v>0.3695</v>
@@ -3775,21 +3636,21 @@
         <v>0.2409</v>
       </c>
       <c r="E73" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F73" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G73" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C74">
         <v>0.64200000000000002</v>
@@ -3798,21 +3659,21 @@
         <v>0.34489999999999998</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G74" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C75">
         <v>0.3095</v>
@@ -3821,21 +3682,21 @@
         <v>0.35699999999999998</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F75" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G75" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C76">
         <v>0.72289999999999999</v>
@@ -3844,21 +3705,21 @@
         <v>0.44190000000000002</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G76" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C77">
         <v>0.24479999999999999</v>
@@ -3867,21 +3728,21 @@
         <v>0.45229999999999998</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C78">
         <v>0.54500000000000004</v>
@@ -3890,21 +3751,21 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="F78" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G78" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C79">
         <v>0.43419999999999997</v>
@@ -3913,21 +3774,21 @@
         <v>0.46970000000000001</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C80">
         <v>0.53580000000000005</v>
@@ -3936,21 +3797,21 @@
         <v>0.63260000000000005</v>
       </c>
       <c r="E80" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="G80" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C81">
         <v>0.44340000000000002</v>
@@ -3959,21 +3820,21 @@
         <v>0.63260000000000005</v>
       </c>
       <c r="E81" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F81" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="G81" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C82">
         <v>0.53120000000000001</v>
@@ -3982,21 +3843,21 @@
         <v>0.76949999999999996</v>
       </c>
       <c r="E82" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="G82" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C83">
         <v>0.46650000000000003</v>
@@ -4005,21 +3866,21 @@
         <v>0.76780000000000004</v>
       </c>
       <c r="E83" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F83" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C84">
         <v>0.52890000000000004</v>
@@ -4028,21 +3889,21 @@
         <v>0.77990000000000004</v>
       </c>
       <c r="E84" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="F84" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="G84" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C85">
         <v>0.45269999999999999</v>
@@ -4051,21 +3912,21 @@
         <v>0.83189999999999997</v>
       </c>
       <c r="E85" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F85" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="G85" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C86">
         <v>0.52659999999999996</v>
@@ -4074,21 +3935,21 @@
         <v>0.104</v>
       </c>
       <c r="E86" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G86" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C87">
         <v>0.55200000000000005</v>
@@ -4097,21 +3958,21 @@
         <v>8.4900000000000003E-2</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="G87" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C88">
         <v>0.50119999999999998</v>
@@ -4120,21 +3981,21 @@
         <v>8.6699999999999999E-2</v>
       </c>
       <c r="E88" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F88" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="G88" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C89">
         <v>0.57269999999999999</v>
@@ -4143,21 +4004,21 @@
         <v>9.5299999999999996E-2</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="F89" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C90">
         <v>0.47810000000000002</v>
@@ -4166,21 +4027,21 @@
         <v>9.5299999999999996E-2</v>
       </c>
       <c r="E90" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="G90" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C91">
         <v>0.54500000000000004</v>
@@ -4189,21 +4050,21 @@
         <v>0.1265</v>
       </c>
       <c r="E91" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C92">
         <v>0.5081</v>
@@ -4212,21 +4073,21 @@
         <v>0.12479999999999999</v>
       </c>
       <c r="E92" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C93">
         <v>0.64670000000000005</v>
@@ -4235,21 +4096,21 @@
         <v>0.23050000000000001</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F93" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="G93" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C94">
         <v>0.3972</v>
@@ -4258,21 +4119,21 @@
         <v>0.23050000000000001</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="F94" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="G94" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C95">
         <v>0.7298</v>
@@ -4281,21 +4142,21 @@
         <v>0.34839999999999999</v>
       </c>
       <c r="E95" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F95" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="G95" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C96">
         <v>0.33489999999999998</v>
@@ -4304,21 +4165,21 @@
         <v>0.37090000000000001</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="F96" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G96" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C97">
         <v>0.75290000000000001</v>
@@ -4327,21 +4188,21 @@
         <v>0.47139999999999999</v>
       </c>
       <c r="E97" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C98">
         <v>0.30719999999999997</v>
@@ -4350,21 +4211,21 @@
         <v>0.49390000000000001</v>
       </c>
       <c r="E98" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="F98" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="G98" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C99">
         <v>0.59350000000000003</v>
@@ -4373,21 +4234,21 @@
         <v>0.49740000000000001</v>
       </c>
       <c r="E99" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G99" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C100">
         <v>0.45960000000000001</v>
@@ -4396,21 +4257,21 @@
         <v>0.49569999999999997</v>
       </c>
       <c r="E100" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G100" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C101">
         <v>0.5958</v>
@@ -4419,21 +4280,21 @@
         <v>0.66900000000000004</v>
       </c>
       <c r="E101" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G101" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C102">
         <v>0.45729999999999998</v>
@@ -4442,21 +4303,21 @@
         <v>0.67069999999999996</v>
       </c>
       <c r="E102" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F102" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G102" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C103">
         <v>0.61890000000000001</v>
@@ -4465,21 +4326,21 @@
         <v>0.82150000000000001</v>
       </c>
       <c r="E103" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F103" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G103" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C104">
         <v>0.44340000000000002</v>
@@ -4488,21 +4349,21 @@
         <v>0.81799999999999995</v>
       </c>
       <c r="E104" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="F104" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G104" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C105">
         <v>0.60970000000000002</v>
@@ -4511,21 +4372,21 @@
         <v>0.83709999999999996</v>
       </c>
       <c r="E105" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="F105" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="G105" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C106">
         <v>0.41799999999999998</v>
@@ -4534,21 +4395,21 @@
         <v>0.89249999999999996</v>
       </c>
       <c r="E106" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F106" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="G106" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C107">
         <v>0.5242</v>
@@ -4557,21 +4418,21 @@
         <v>0.1231</v>
       </c>
       <c r="E107" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G107" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C108">
         <v>0.54969999999999997</v>
@@ -4580,21 +4441,21 @@
         <v>0.104</v>
       </c>
       <c r="E108" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G108" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C109">
         <v>0.4965</v>
@@ -4603,21 +4464,21 @@
         <v>0.1057</v>
       </c>
       <c r="E109" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G109" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C110">
         <v>0.57040000000000002</v>
@@ -4626,21 +4487,21 @@
         <v>0.1144</v>
       </c>
       <c r="E110" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G110" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C111">
         <v>0.47339999999999999</v>
@@ -4649,21 +4510,21 @@
         <v>0.11609999999999999</v>
       </c>
       <c r="E111" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G111" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C112">
         <v>0.54269999999999996</v>
@@ -4672,21 +4533,21 @@
         <v>0.14560000000000001</v>
       </c>
       <c r="E112" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F112" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C113">
         <v>0.50119999999999998</v>
@@ -4695,21 +4556,21 @@
         <v>0.14560000000000001</v>
       </c>
       <c r="E113" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G113" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C114">
         <v>0.64200000000000002</v>
@@ -4718,21 +4579,21 @@
         <v>0.2409</v>
       </c>
       <c r="E114" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="F114" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="G114" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C115">
         <v>0.39029999999999998</v>
@@ -4741,21 +4602,21 @@
         <v>0.23219999999999999</v>
       </c>
       <c r="E115" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="F115" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G115" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C116">
         <v>0.74829999999999997</v>
@@ -4764,21 +4625,21 @@
         <v>0.33450000000000002</v>
       </c>
       <c r="E116" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F116" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="G116" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C117">
         <v>0.2656</v>
@@ -4787,21 +4648,21 @@
         <v>0.32579999999999998</v>
       </c>
       <c r="E117" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="F117" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="G117" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C118">
         <v>0.77829999999999999</v>
@@ -4810,21 +4671,21 @@
         <v>0.44540000000000002</v>
       </c>
       <c r="E118" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F118" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C119">
         <v>0.21940000000000001</v>
@@ -4833,21 +4694,21 @@
         <v>0.44019999999999998</v>
       </c>
       <c r="E119" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F119" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C120">
         <v>0.57040000000000002</v>
@@ -4856,21 +4717,21 @@
         <v>0.50780000000000003</v>
       </c>
       <c r="E120" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F120" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="G120" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C121">
         <v>0.43880000000000002</v>
@@ -4879,21 +4740,21 @@
         <v>0.50609999999999999</v>
       </c>
       <c r="E121" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F121" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C122">
         <v>0.55889999999999995</v>
@@ -4902,21 +4763,21 @@
         <v>0.69499999999999995</v>
       </c>
       <c r="E122" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F122" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="G122" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C123">
         <v>0.43190000000000001</v>
@@ -4925,21 +4786,21 @@
         <v>0.68799999999999994</v>
       </c>
       <c r="E123" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F123" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="G123" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C124">
         <v>0.57509999999999994</v>
@@ -4948,21 +4809,21 @@
         <v>0.86309999999999998</v>
       </c>
       <c r="E124" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="F124" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C125">
         <v>0.4088</v>
@@ -4971,21 +4832,21 @@
         <v>0.85619999999999996</v>
       </c>
       <c r="E125" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F125" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="G125" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C126">
         <v>0.55659999999999998</v>
@@ -4994,21 +4855,21 @@
         <v>0.88039999999999996</v>
       </c>
       <c r="E126" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="G126" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C127">
         <v>0.38800000000000001</v>
@@ -5017,21 +4878,21 @@
         <v>0.93069999999999997</v>
       </c>
       <c r="E127" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="F127" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="G127" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C128">
         <v>0.51959999999999995</v>
@@ -5048,16 +4909,13 @@
       <c r="G128">
         <v>0.18959999999999999</v>
       </c>
-      <c r="H128" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C129">
         <v>0.54730000000000001</v>
@@ -5074,16 +4932,13 @@
       <c r="G129">
         <v>0.1575</v>
       </c>
-      <c r="H129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C130">
         <v>0.4965</v>
@@ -5100,16 +4955,13 @@
       <c r="G130">
         <v>0.1406</v>
       </c>
-      <c r="H130" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C131">
         <v>0.57040000000000002</v>
@@ -5126,16 +4978,13 @@
       <c r="G131">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="H131" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C132">
         <v>0.4758</v>
@@ -5152,16 +5001,13 @@
       <c r="G132">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="H132" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C133">
         <v>0.53810000000000002</v>
@@ -5178,16 +5024,13 @@
       <c r="G133">
         <v>0.15790000000000001</v>
       </c>
-      <c r="H133" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C134">
         <v>0.49880000000000002</v>
@@ -5204,16 +5047,13 @@
       <c r="G134">
         <v>0.15620000000000001</v>
       </c>
-      <c r="H134" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C135">
         <v>0.64429999999999998</v>
@@ -5230,16 +5070,13 @@
       <c r="G135">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="H135" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C136">
         <v>0.39950000000000002</v>
@@ -5256,16 +5093,13 @@
       <c r="G136">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="H136" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C137">
         <v>0.746</v>
@@ -5282,16 +5116,13 @@
       <c r="G137">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="H137" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C138">
         <v>0.30719999999999997</v>
@@ -5308,16 +5139,13 @@
       <c r="G138">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H138" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C139">
         <v>0.746</v>
@@ -5334,16 +5162,13 @@
       <c r="G139">
         <v>0.1062</v>
       </c>
-      <c r="H139" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C140">
         <v>0.27710000000000001</v>
@@ -5360,16 +5185,13 @@
       <c r="G140">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="H140" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C141">
         <v>0.57969999999999999</v>
@@ -5386,16 +5208,13 @@
       <c r="G141">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="H141" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C142">
         <v>0.45269999999999999</v>
@@ -5412,16 +5231,13 @@
       <c r="G142">
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="H142" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C143">
         <v>0.58199999999999996</v>
@@ -5438,16 +5254,13 @@
       <c r="G143">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="H143" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C144">
         <v>0.46189999999999998</v>
@@ -5464,16 +5277,13 @@
       <c r="G144">
         <v>6.3799999999999996E-2</v>
       </c>
-      <c r="H144" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C145">
         <v>0.59350000000000003</v>
@@ -5490,16 +5300,13 @@
       <c r="G145">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="H145" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C146">
         <v>0.4642</v>
@@ -5516,16 +5323,13 @@
       <c r="G146">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="H146" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C147">
         <v>0.57269999999999999</v>
@@ -5542,16 +5346,13 @@
       <c r="G147">
         <v>0.125</v>
       </c>
-      <c r="H147" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C148">
         <v>0.39950000000000002</v>
@@ -5569,16 +5370,13 @@
       <c r="G148">
         <v>0.1719</v>
       </c>
-      <c r="H148" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C149">
         <v>0.51729999999999998</v>
@@ -5595,16 +5393,13 @@
       <c r="G149">
         <v>0.15570000000000001</v>
       </c>
-      <c r="H149" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C150">
         <v>0.53349999999999997</v>
@@ -5621,16 +5416,13 @@
       <c r="G150">
         <v>0.1094</v>
       </c>
-      <c r="H150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C151">
         <v>0.4919</v>
@@ -5647,16 +5439,13 @@
       <c r="G151">
         <v>0.12139999999999999</v>
       </c>
-      <c r="H151" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C152">
         <v>0.54500000000000004</v>
@@ -5673,16 +5462,13 @@
       <c r="G152">
         <v>5.0500000000000003E-2</v>
       </c>
-      <c r="H152" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C153">
         <v>0.46879999999999999</v>
@@ -5699,16 +5485,13 @@
       <c r="G153">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="H153" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C154">
         <v>0.53120000000000001</v>
@@ -5725,16 +5508,13 @@
       <c r="G154">
         <v>0.1484</v>
       </c>
-      <c r="H154" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C155">
         <v>0.49880000000000002</v>
@@ -5751,16 +5531,13 @@
       <c r="G155">
         <v>0.1484</v>
       </c>
-      <c r="H155" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C156">
         <v>0.62360000000000004</v>
@@ -5777,16 +5554,13 @@
       <c r="G156">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="H156" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C157">
         <v>0.39489999999999997</v>
@@ -5803,16 +5577,13 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="H157" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C158">
         <v>0.67210000000000003</v>
@@ -5829,16 +5600,13 @@
       <c r="G158">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="H158" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C159">
         <v>0.34410000000000002</v>
@@ -5855,16 +5623,13 @@
       <c r="G159">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="H159" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C160">
         <v>0.73440000000000005</v>
@@ -5881,16 +5646,13 @@
       <c r="G160">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="H160" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C161">
         <v>0.27479999999999999</v>
@@ -5907,16 +5669,13 @@
       <c r="G161">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="H161" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C162">
         <v>0.56810000000000005</v>
@@ -5933,16 +5692,13 @@
       <c r="G162">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="H162" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C163">
         <v>0.44109999999999999</v>
@@ -5959,16 +5715,13 @@
       <c r="G163">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="H163" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C164">
         <v>0.57040000000000002</v>
@@ -5985,16 +5738,13 @@
       <c r="G164">
         <v>6.25E-2</v>
       </c>
-      <c r="H164" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C165">
         <v>0.43880000000000002</v>
@@ -6011,16 +5761,13 @@
       <c r="G165">
         <v>2.46E-2</v>
       </c>
-      <c r="H165" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C166">
         <v>0.57969999999999999</v>
@@ -6037,16 +5784,13 @@
       <c r="G166">
         <v>-1.2800000000000001E-2</v>
       </c>
-      <c r="H166" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C167">
         <v>0.42030000000000001</v>
@@ -6063,16 +5807,13 @@
       <c r="G167">
         <v>-1.5599999999999999E-2</v>
       </c>
-      <c r="H167" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C168">
         <v>0.56120000000000003</v>
@@ -6089,16 +5830,13 @@
       <c r="G168">
         <v>5.57E-2</v>
       </c>
-      <c r="H168" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C169">
         <v>0.37880000000000003</v>
@@ -6115,16 +5853,13 @@
       <c r="G169">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="H169" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C170">
         <v>0.52190000000000003</v>
@@ -6141,16 +5876,13 @@
       <c r="G170">
         <v>0.17649999999999999</v>
       </c>
-      <c r="H170" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C171">
         <v>0.54039999999999999</v>
@@ -6167,16 +5899,13 @@
       <c r="G171">
         <v>0.1484</v>
       </c>
-      <c r="H171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C172">
         <v>0.4919</v>
@@ -6193,16 +5922,13 @@
       <c r="G172">
         <v>0.155</v>
       </c>
-      <c r="H172" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C173">
         <v>0.56120000000000003</v>
@@ -6219,16 +5945,13 @@
       <c r="G173">
         <v>7.0300000000000001E-2</v>
       </c>
-      <c r="H173" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C174">
         <v>0.46650000000000003</v>
@@ -6245,16 +5968,13 @@
       <c r="G174">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="H174" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C175">
         <v>0.53810000000000002</v>
@@ -6271,16 +5991,13 @@
       <c r="G175">
         <v>0.1641</v>
       </c>
-      <c r="H175" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C176">
         <v>0.50119999999999998</v>
@@ -6297,16 +6014,13 @@
       <c r="G176">
         <v>0.1701</v>
       </c>
-      <c r="H176" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C177">
         <v>0.64429999999999998</v>
@@ -6323,16 +6037,13 @@
       <c r="G177">
         <v>3.73E-2</v>
       </c>
-      <c r="H177" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C178">
         <v>0.39489999999999997</v>
@@ -6349,16 +6060,13 @@
       <c r="G178">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="H178" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C179">
         <v>0.67210000000000003</v>
@@ -6375,16 +6083,13 @@
       <c r="G179">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="H179" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C180">
         <v>0.35799999999999998</v>
@@ -6401,16 +6106,13 @@
       <c r="G180">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="H180" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C181">
         <v>0.72289999999999999</v>
@@ -6427,16 +6129,13 @@
       <c r="G181">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="H181" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C182">
         <v>0.32100000000000001</v>
@@ -6453,16 +6152,13 @@
       <c r="G182">
         <v>-7.7999999999999996E-3</v>
       </c>
-      <c r="H182" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C183">
         <v>0.57740000000000002</v>
@@ -6479,16 +6175,13 @@
       <c r="G183">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="H183" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C184">
         <v>0.44109999999999999</v>
@@ -6505,16 +6198,13 @@
       <c r="G184">
         <v>6.25E-2</v>
       </c>
-      <c r="H184" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C185">
         <v>0.56810000000000005</v>
@@ -6531,16 +6221,13 @@
       <c r="G185">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="H185" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C186">
         <v>0.45269999999999999</v>
@@ -6557,16 +6244,13 @@
       <c r="G186">
         <v>1.21E-2</v>
       </c>
-      <c r="H186" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C187">
         <v>0.56579999999999997</v>
@@ -6583,16 +6267,13 @@
       <c r="G187">
         <v>-1.5599999999999999E-2</v>
       </c>
-      <c r="H187" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C188">
         <v>0.44569999999999999</v>
@@ -6609,16 +6290,13 @@
       <c r="G188">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="H188" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C189">
         <v>0.54969999999999997</v>
@@ -6635,16 +6313,13 @@
       <c r="G189">
         <v>0.11210000000000001</v>
       </c>
-      <c r="H189" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C190">
         <v>0.43419999999999997</v>
@@ -6661,16 +6336,13 @@
       <c r="G190">
         <v>0.1134</v>
       </c>
-      <c r="H190" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C191">
         <v>0.50119999999999998</v>
@@ -6687,16 +6359,13 @@
       <c r="G191">
         <v>0.15090000000000001</v>
       </c>
-      <c r="H191" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C192">
         <v>0.52890000000000004</v>
@@ -6713,16 +6382,13 @@
       <c r="G192">
         <v>0.13059999999999999</v>
       </c>
-      <c r="H192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C193">
         <v>0.47810000000000002</v>
@@ -6739,16 +6405,13 @@
       <c r="G193">
         <v>0.12189999999999999</v>
       </c>
-      <c r="H193" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C194">
         <v>0.54730000000000001</v>
@@ -6765,16 +6428,13 @@
       <c r="G194">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="H194" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C195">
         <v>0.46189999999999998</v>
@@ -6791,16 +6451,13 @@
       <c r="G195">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="H195" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C196">
         <v>0.52190000000000003</v>
@@ -6817,16 +6474,13 @@
       <c r="G196">
         <v>0.1346</v>
       </c>
-      <c r="H196" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C197">
         <v>0.48270000000000002</v>
@@ -6843,16 +6497,13 @@
       <c r="G197">
         <v>0.12920000000000001</v>
       </c>
-      <c r="H197" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C198">
         <v>0.62819999999999998</v>
@@ -6869,16 +6520,13 @@
       <c r="G198">
         <v>-7.7999999999999996E-3</v>
       </c>
-      <c r="H198" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C199">
         <v>0.3926</v>
@@ -6895,16 +6543,13 @@
       <c r="G199">
         <v>0</v>
       </c>
-      <c r="H199" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C200">
         <v>0.73899999999999999</v>
@@ -6921,16 +6566,13 @@
       <c r="G200">
         <v>-2.5999999999999999E-2</v>
       </c>
-      <c r="H200" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C201">
         <v>0.28870000000000001</v>
@@ -6947,16 +6589,13 @@
       <c r="G201">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="H201" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C202">
         <v>0.74360000000000004</v>
@@ -6973,16 +6612,13 @@
       <c r="G202">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="H202" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C203">
         <v>0.30020000000000002</v>
@@ -6999,16 +6635,13 @@
       <c r="G203">
         <v>8.5500000000000007E-2</v>
       </c>
-      <c r="H203" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C204">
         <v>0.56579999999999997</v>
@@ -7025,16 +6658,13 @@
       <c r="G204">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="H204" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C205">
         <v>0.44800000000000001</v>
@@ -7051,16 +6681,13 @@
       <c r="G205">
         <v>6.25E-2</v>
       </c>
-      <c r="H205" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C206">
         <v>0.57040000000000002</v>
@@ -7077,16 +6704,13 @@
       <c r="G206">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="H206" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C207">
         <v>0.45269999999999999</v>
@@ -7103,16 +6727,13 @@
       <c r="G207">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="H207" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C208">
         <v>0.57269999999999999</v>
@@ -7129,16 +6750,13 @@
       <c r="G208">
         <v>3.5200000000000002E-2</v>
       </c>
-      <c r="H208" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C209">
         <v>0.44340000000000002</v>
@@ -7155,16 +6773,13 @@
       <c r="G209">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="H209" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C210">
         <v>0.55659999999999998</v>
@@ -7181,16 +6796,13 @@
       <c r="G210">
         <v>0.1152</v>
       </c>
-      <c r="H210" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C211">
         <v>0.43190000000000001</v>
@@ -7207,16 +6819,13 @@
       <c r="G211">
         <v>0.14660000000000001</v>
       </c>
-      <c r="H211" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C212">
         <v>0.50119999999999998</v>
@@ -7233,16 +6842,13 @@
       <c r="G212">
         <v>0.1532</v>
       </c>
-      <c r="H212" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C213">
         <v>0.52659999999999996</v>
@@ -7259,16 +6865,13 @@
       <c r="G213">
         <v>0.1273</v>
       </c>
-      <c r="H213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C214">
         <v>0.4758</v>
@@ -7285,16 +6888,13 @@
       <c r="G214">
         <v>0.1172</v>
       </c>
-      <c r="H214" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C215">
         <v>0.54969999999999997</v>
@@ -7311,16 +6911,13 @@
       <c r="G215">
         <v>0</v>
       </c>
-      <c r="H215" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C216">
         <v>0.45500000000000002</v>
@@ -7337,16 +6934,13 @@
       <c r="G216">
         <v>0</v>
       </c>
-      <c r="H216" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C217">
         <v>0.52190000000000003</v>
@@ -7363,16 +6957,13 @@
       <c r="G217">
         <v>0.1328</v>
       </c>
-      <c r="H217" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C218">
         <v>0.48270000000000002</v>
@@ -7389,16 +6980,13 @@
       <c r="G218">
         <v>-7.8100000000000003E-2</v>
       </c>
-      <c r="H218" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C219">
         <v>0.63049999999999995</v>
@@ -7415,16 +7003,13 @@
       <c r="G219">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="H219" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C220">
         <v>0.37640000000000001</v>
@@ -7441,16 +7026,13 @@
       <c r="G220">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="H220" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C221">
         <v>0.75519999999999998</v>
@@ -7467,16 +7049,13 @@
       <c r="G221">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="H221" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C222">
         <v>0.23330000000000001</v>
@@ -7493,16 +7072,13 @@
       <c r="G222">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="H222" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C223">
         <v>0.78749999999999998</v>
@@ -7519,16 +7095,13 @@
       <c r="G223">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="H223" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C224">
         <v>0.21479999999999999</v>
@@ -7545,16 +7118,13 @@
       <c r="G224">
         <v>0.14169999999999999</v>
       </c>
-      <c r="H224" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C225">
         <v>0.57509999999999994</v>
@@ -7571,16 +7141,13 @@
       <c r="G225">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="H225" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C226">
         <v>0.44340000000000002</v>
@@ -7597,16 +7164,13 @@
       <c r="G226">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="H226" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C227">
         <v>0.55659999999999998</v>
@@ -7623,16 +7187,13 @@
       <c r="G227">
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="H227" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C228">
         <v>0.45269999999999999</v>
@@ -7649,16 +7210,13 @@
       <c r="G228">
         <v>-7.7999999999999996E-3</v>
       </c>
-      <c r="H228" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C229">
         <v>0.56810000000000005</v>
@@ -7675,16 +7233,13 @@
       <c r="G229">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="H229" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C230">
         <v>0.45029999999999998</v>
@@ -7701,16 +7256,13 @@
       <c r="G230">
         <v>-9.3100000000000002E-2</v>
       </c>
-      <c r="H230" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C231">
         <v>0.55430000000000001</v>
@@ -7727,16 +7279,13 @@
       <c r="G231">
         <v>0.15870000000000001</v>
       </c>
-      <c r="H231" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C232">
         <v>0.42259999999999998</v>
@@ -7753,16 +7302,13 @@
       <c r="G232">
         <v>7.0300000000000001E-2</v>
       </c>
-      <c r="H232" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C233">
         <v>0.45269999999999999</v>
@@ -7779,16 +7325,13 @@
       <c r="G233">
         <v>0.14069999999999999</v>
       </c>
-      <c r="H233" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C234">
         <v>0.47810000000000002</v>
@@ -7805,16 +7348,13 @@
       <c r="G234">
         <v>0.1128</v>
       </c>
-      <c r="H234" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C235">
         <v>0.4249</v>
@@ -7831,16 +7371,13 @@
       <c r="G235">
         <v>0.108</v>
       </c>
-      <c r="H235" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C236">
         <v>0.5081</v>
@@ -7857,16 +7394,13 @@
       <c r="G236">
         <v>3.32E-2</v>
       </c>
-      <c r="H236" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C237">
         <v>0.40649999999999997</v>
@@ -7883,16 +7417,13 @@
       <c r="G237">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="H237" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C238">
         <v>0.47339999999999999</v>
@@ -7909,16 +7440,13 @@
       <c r="G238">
         <v>0.13300000000000001</v>
       </c>
-      <c r="H238" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C239">
         <v>0.4365</v>
@@ -7935,16 +7463,13 @@
       <c r="G239">
         <v>0.12770000000000001</v>
       </c>
-      <c r="H239" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C240">
         <v>0.5958</v>
@@ -7961,16 +7486,13 @@
       <c r="G240">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="H240" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C241">
         <v>0.34179999999999999</v>
@@ -7987,16 +7509,13 @@
       <c r="G241">
         <v>-7.7999999999999996E-3</v>
       </c>
-      <c r="H241" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C242">
         <v>0.74360000000000004</v>
@@ -8013,16 +7532,13 @@
       <c r="G242">
         <v>1.72E-2</v>
       </c>
-      <c r="H242" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C243">
         <v>0.2286</v>
@@ -8039,16 +7555,13 @@
       <c r="G243">
         <v>-1.9300000000000001E-2</v>
       </c>
-      <c r="H243" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C244">
         <v>0.74129999999999996</v>
@@ -8065,16 +7578,13 @@
       <c r="G244">
         <v>7.0300000000000001E-2</v>
       </c>
-      <c r="H244" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C245">
         <v>0.2009</v>
@@ -8091,16 +7601,13 @@
       <c r="G245">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="H245" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C246">
         <v>0.53349999999999997</v>
@@ -8117,16 +7624,13 @@
       <c r="G246">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="H246" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C247">
         <v>0.4042</v>
@@ -8143,16 +7647,13 @@
       <c r="G247">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="H247" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C248">
         <v>0.53349999999999997</v>
@@ -8169,16 +7670,13 @@
       <c r="G248">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="H248" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C249">
         <v>0.41110000000000002</v>
@@ -8195,16 +7693,13 @@
       <c r="G249">
         <v>-9.5999999999999992E-3</v>
       </c>
-      <c r="H249" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C250">
         <v>0.54730000000000001</v>
@@ -8221,16 +7716,13 @@
       <c r="G250">
         <v>-2.4400000000000002E-2</v>
       </c>
-      <c r="H250" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C251">
         <v>0.39489999999999997</v>
@@ -8247,16 +7739,13 @@
       <c r="G251">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="H251" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C252">
         <v>0.53120000000000001</v>
@@ -8273,16 +7762,13 @@
       <c r="G252">
         <v>0.10340000000000001</v>
       </c>
-      <c r="H252" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C253">
         <v>0.33489999999999998</v>
@@ -8299,16 +7785,13 @@
       <c r="G253">
         <v>0.14349999999999999</v>
       </c>
-      <c r="H253" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C254">
         <v>0.49580000000000002</v>
@@ -8317,24 +7800,21 @@
         <v>0.1203</v>
       </c>
       <c r="E254" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F254" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G254" t="s">
-        <v>237</v>
-      </c>
-      <c r="H254" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C255">
         <v>0.52080000000000004</v>
@@ -8343,24 +7823,21 @@
         <v>0.1062</v>
       </c>
       <c r="E255" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F255" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G255" t="s">
-        <v>238</v>
-      </c>
-      <c r="H255" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C256">
         <v>0.47710000000000002</v>
@@ -8369,24 +7846,21 @@
         <v>0.1031</v>
       </c>
       <c r="E256" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F256" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G256" t="s">
-        <v>239</v>
-      </c>
-      <c r="H256" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C257">
         <v>0.54169999999999996</v>
@@ -8395,24 +7869,21 @@
         <v>0.11409999999999999</v>
       </c>
       <c r="E257" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F257" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G257" t="s">
-        <v>62</v>
-      </c>
-      <c r="H257" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C258">
         <v>0.46250000000000002</v>
@@ -8421,24 +7892,21 @@
         <v>0.1125</v>
       </c>
       <c r="E258" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="F258" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G258" t="s">
-        <v>59</v>
-      </c>
-      <c r="H258" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C259">
         <v>0.51459999999999995</v>
@@ -8447,24 +7915,21 @@
         <v>0.1406</v>
       </c>
       <c r="E259" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="F259" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G259" t="s">
-        <v>44</v>
-      </c>
-      <c r="H259" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C260">
         <v>0.48130000000000001</v>
@@ -8473,24 +7938,21 @@
         <v>0.1391</v>
       </c>
       <c r="E260" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F260" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G260" t="s">
-        <v>243</v>
-      </c>
-      <c r="H260" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C261">
         <v>0.61460000000000004</v>
@@ -8499,24 +7961,21 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="E261" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F261" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G261" t="s">
-        <v>244</v>
-      </c>
-      <c r="H261" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C262">
         <v>0.39789999999999998</v>
@@ -8525,24 +7984,21 @@
         <v>0.22339999999999999</v>
       </c>
       <c r="E262" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="F262" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G262" t="s">
-        <v>245</v>
-      </c>
-      <c r="H262" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C263">
         <v>0.65620000000000001</v>
@@ -8551,24 +8007,21 @@
         <v>0.35160000000000002</v>
       </c>
       <c r="E263" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="F263" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G263" t="s">
-        <v>247</v>
-      </c>
-      <c r="H263" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C264">
         <v>0.35420000000000001</v>
@@ -8577,24 +8030,21 @@
         <v>0.35160000000000002</v>
       </c>
       <c r="E264" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="F264" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="G264" t="s">
-        <v>249</v>
-      </c>
-      <c r="H264" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C265">
         <v>0.71040000000000003</v>
@@ -8603,24 +8053,21 @@
         <v>0.46089999999999998</v>
       </c>
       <c r="E265" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="F265" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G265" t="s">
-        <v>251</v>
-      </c>
-      <c r="H265" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C266">
         <v>0.30420000000000003</v>
@@ -8629,24 +8076,21 @@
         <v>0.46089999999999998</v>
       </c>
       <c r="E266" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="F266" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G266" t="s">
-        <v>253</v>
-      </c>
-      <c r="H266" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C267">
         <v>0.5625</v>
@@ -8655,24 +8099,21 @@
         <v>0.46250000000000002</v>
       </c>
       <c r="E267" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F267" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="G267" t="s">
-        <v>254</v>
-      </c>
-      <c r="H267" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C268">
         <v>0.43330000000000002</v>
@@ -8681,24 +8122,21 @@
         <v>0.46410000000000001</v>
       </c>
       <c r="E268" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F268" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="G268" t="s">
-        <v>255</v>
-      </c>
-      <c r="H268" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C269">
         <v>0.53749999999999998</v>
@@ -8707,24 +8145,21 @@
         <v>0.64529999999999998</v>
       </c>
       <c r="E269" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F269" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="G269" t="s">
-        <v>257</v>
-      </c>
-      <c r="H269" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C270">
         <v>0.45</v>
@@ -8733,24 +8168,21 @@
         <v>0.64380000000000004</v>
       </c>
       <c r="E270" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F270" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="G270" t="s">
-        <v>258</v>
-      </c>
-      <c r="H270" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C271">
         <v>0.53539999999999999</v>
@@ -8759,24 +8191,21 @@
         <v>0.78749999999999998</v>
       </c>
       <c r="E271" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F271" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="G271" t="s">
-        <v>260</v>
-      </c>
-      <c r="H271" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C272">
         <v>0.46039999999999998</v>
@@ -8785,24 +8214,21 @@
         <v>0.79059999999999997</v>
       </c>
       <c r="E272" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="F272" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="G272" t="s">
-        <v>263</v>
-      </c>
-      <c r="H272" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C273">
         <v>0.54169999999999996</v>
@@ -8811,24 +8237,21 @@
         <v>0.85470000000000002</v>
       </c>
       <c r="E273" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F273" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="G273" t="s">
-        <v>265</v>
-      </c>
-      <c r="H273" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C274">
         <v>0.44579999999999997</v>
@@ -8837,24 +8260,21 @@
         <v>0.85470000000000002</v>
       </c>
       <c r="E274" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="F274" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="G274" t="s">
-        <v>91</v>
-      </c>
-      <c r="H274" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C275">
         <v>0.51880000000000004</v>
@@ -8863,24 +8283,21 @@
         <v>0.125</v>
       </c>
       <c r="E275" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F275" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="G275" t="s">
-        <v>269</v>
-      </c>
-      <c r="H275" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C276">
         <v>0.54169999999999996</v>
@@ -8889,24 +8306,21 @@
         <v>0.1047</v>
       </c>
       <c r="E276" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F276" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G276" t="s">
-        <v>270</v>
-      </c>
-      <c r="H276" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C277">
         <v>0.49170000000000003</v>
@@ -8915,24 +8329,21 @@
         <v>0.1031</v>
       </c>
       <c r="E277" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F277" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G277" t="s">
-        <v>271</v>
-      </c>
-      <c r="H277" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C278">
         <v>0.56669999999999998</v>
@@ -8941,24 +8352,21 @@
         <v>0.1172</v>
       </c>
       <c r="E278" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="F278" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G278" t="s">
-        <v>70</v>
-      </c>
-      <c r="H278" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C279">
         <v>0.4667</v>
@@ -8967,24 +8375,21 @@
         <v>0.1172</v>
       </c>
       <c r="E279" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="F279" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G279" t="s">
-        <v>70</v>
-      </c>
-      <c r="H279" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C280">
         <v>0.53539999999999999</v>
@@ -8993,24 +8398,21 @@
         <v>0.1469</v>
       </c>
       <c r="E280" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="F280" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G280" t="s">
-        <v>246</v>
-      </c>
-      <c r="H280" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C281">
         <v>0.49790000000000001</v>
@@ -9019,24 +8421,21 @@
         <v>0.1469</v>
       </c>
       <c r="E281" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F281" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G281" t="s">
-        <v>275</v>
-      </c>
-      <c r="H281" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C282">
         <v>0.65</v>
@@ -9045,24 +8444,21 @@
         <v>0.24690000000000001</v>
       </c>
       <c r="E282" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="F282" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="G282" t="s">
-        <v>277</v>
-      </c>
-      <c r="H282" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C283">
         <v>0.37290000000000001</v>
@@ -9071,24 +8467,21 @@
         <v>0.23910000000000001</v>
       </c>
       <c r="E283" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F283" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="G283" t="s">
-        <v>278</v>
-      </c>
-      <c r="H283" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C284">
         <v>0.76459999999999995</v>
@@ -9097,24 +8490,21 @@
         <v>0.3422</v>
       </c>
       <c r="E284" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F284" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="G284" t="s">
-        <v>279</v>
-      </c>
-      <c r="H284" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C285">
         <v>0.23330000000000001</v>
@@ -9123,24 +8513,21 @@
         <v>0.32190000000000002</v>
       </c>
       <c r="E285" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="F285" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="G285" t="s">
-        <v>281</v>
-      </c>
-      <c r="H285" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C286">
         <v>0.77710000000000001</v>
@@ -9149,24 +8536,21 @@
         <v>0.46879999999999999</v>
       </c>
       <c r="E286" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F286" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="G286" t="s">
-        <v>284</v>
-      </c>
-      <c r="H286" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C287">
         <v>0.2104</v>
@@ -9175,24 +8559,21 @@
         <v>0.4531</v>
       </c>
       <c r="E287" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="F287" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="G287" t="s">
-        <v>287</v>
-      </c>
-      <c r="H287" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C288">
         <v>0.57079999999999997</v>
@@ -9201,24 +8582,21 @@
         <v>0.51090000000000002</v>
       </c>
       <c r="E288" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F288" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="G288" t="s">
-        <v>288</v>
-      </c>
-      <c r="H288" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C289">
         <v>0.42499999999999999</v>
@@ -9227,24 +8605,21 @@
         <v>0.51090000000000002</v>
       </c>
       <c r="E289" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F289" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="G289" t="s">
-        <v>289</v>
-      </c>
-      <c r="H289" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C290">
         <v>0.56459999999999999</v>
@@ -9253,24 +8628,21 @@
         <v>0.67969999999999997</v>
       </c>
       <c r="E290" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F290" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="G290" t="s">
-        <v>291</v>
-      </c>
-      <c r="H290" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C291">
         <v>0.4229</v>
@@ -9279,24 +8651,21 @@
         <v>0.67190000000000005</v>
       </c>
       <c r="E291" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="F291" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="G291" t="s">
-        <v>294</v>
-      </c>
-      <c r="H291" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C292">
         <v>0.57920000000000005</v>
@@ -9305,24 +8674,21 @@
         <v>0.81869999999999998</v>
       </c>
       <c r="E292" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="F292" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="G292" t="s">
-        <v>297</v>
-      </c>
-      <c r="H292" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C293">
         <v>0.41039999999999999</v>
@@ -9331,24 +8697,21 @@
         <v>0.8125</v>
       </c>
       <c r="E293" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F293" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="G293" t="s">
-        <v>299</v>
-      </c>
-      <c r="H293" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C294">
         <v>0.61460000000000004</v>
@@ -9357,24 +8720,21 @@
         <v>0.89380000000000004</v>
       </c>
       <c r="E294" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F294" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="G294" t="s">
-        <v>301</v>
-      </c>
-      <c r="H294" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C295">
         <v>0.36670000000000003</v>
@@ -9383,24 +8743,21 @@
         <v>0.8891</v>
       </c>
       <c r="E295" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="F295" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="G295" t="s">
-        <v>86</v>
-      </c>
-      <c r="H295" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C296">
         <v>0.52290000000000003</v>
@@ -9409,24 +8766,21 @@
         <v>0.1187</v>
       </c>
       <c r="E296" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="F296" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="G296" t="s">
-        <v>149</v>
-      </c>
-      <c r="H296" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C297">
         <v>0.54369999999999996</v>
@@ -9435,24 +8789,21 @@
         <v>0.1031</v>
       </c>
       <c r="E297" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F297" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="G297" t="s">
-        <v>306</v>
-      </c>
-      <c r="H297" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C298">
         <v>0.49380000000000002</v>
@@ -9461,24 +8812,21 @@
         <v>0.1016</v>
       </c>
       <c r="E298" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F298" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="G298" t="s">
-        <v>307</v>
-      </c>
-      <c r="H298" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C299">
         <v>0.56040000000000001</v>
@@ -9487,24 +8835,21 @@
         <v>0.1109</v>
       </c>
       <c r="E299" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="F299" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G299" t="s">
-        <v>83</v>
-      </c>
-      <c r="H299" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C300">
         <v>0.46879999999999999</v>
@@ -9513,24 +8858,21 @@
         <v>0.1109</v>
       </c>
       <c r="E300" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="F300" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G300" t="s">
-        <v>174</v>
-      </c>
-      <c r="H300" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C301">
         <v>0.53539999999999999</v>
@@ -9539,24 +8881,21 @@
         <v>0.1406</v>
       </c>
       <c r="E301" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F301" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="G301" t="s">
-        <v>311</v>
-      </c>
-      <c r="H301" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C302">
         <v>0.5</v>
@@ -9565,24 +8904,21 @@
         <v>0.1391</v>
       </c>
       <c r="E302" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F302" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="G302" t="s">
-        <v>312</v>
-      </c>
-      <c r="H302" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C303">
         <v>0.61460000000000004</v>
@@ -9591,24 +8927,21 @@
         <v>0.23910000000000001</v>
       </c>
       <c r="E303" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F303" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="G303" t="s">
-        <v>313</v>
-      </c>
-      <c r="H303" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C304">
         <v>0.4083</v>
@@ -9617,24 +8950,21 @@
         <v>0.2344</v>
       </c>
       <c r="E304" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="F304" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="G304" t="s">
-        <v>316</v>
-      </c>
-      <c r="H304" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C305">
         <v>0.66669999999999996</v>
@@ -9643,24 +8973,21 @@
         <v>0.35780000000000001</v>
       </c>
       <c r="E305" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="F305" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G305" t="s">
-        <v>55</v>
-      </c>
-      <c r="H305" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C306">
         <v>0.33119999999999999</v>
@@ -9669,24 +8996,21 @@
         <v>0.36720000000000003</v>
       </c>
       <c r="E306" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="F306" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="G306" t="s">
-        <v>319</v>
-      </c>
-      <c r="H306" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C307">
         <v>0.70420000000000005</v>
@@ -9695,24 +9019,21 @@
         <v>0.46879999999999999</v>
       </c>
       <c r="E307" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="F307" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="G307" t="s">
-        <v>86</v>
-      </c>
-      <c r="H307" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C308">
         <v>0.31669999999999998</v>
@@ -9721,24 +9042,21 @@
         <v>0.48130000000000001</v>
       </c>
       <c r="E308" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="F308" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="G308" t="s">
-        <v>323</v>
-      </c>
-      <c r="H308" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C309">
         <v>0.56040000000000001</v>
@@ -9747,24 +9065,21 @@
         <v>0.47810000000000002</v>
       </c>
       <c r="E309" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F309" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G309" t="s">
-        <v>324</v>
-      </c>
-      <c r="H309" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C310">
         <v>0.44790000000000002</v>
@@ -9773,24 +9088,21 @@
         <v>0.47660000000000002</v>
       </c>
       <c r="E310" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F310" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G310" t="s">
-        <v>325</v>
-      </c>
-      <c r="H310" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C311">
         <v>0.54790000000000005</v>
@@ -9799,24 +9111,21 @@
         <v>0.64839999999999998</v>
       </c>
       <c r="E311" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F311" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="G311" t="s">
-        <v>327</v>
-      </c>
-      <c r="H311" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C312">
         <v>0.45419999999999999</v>
@@ -9825,24 +9134,21 @@
         <v>0.64690000000000003</v>
       </c>
       <c r="E312" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F312" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="G312" t="s">
-        <v>328</v>
-      </c>
-      <c r="H312" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C313">
         <v>0.55210000000000004</v>
@@ -9851,24 +9157,21 @@
         <v>0.79220000000000002</v>
       </c>
       <c r="E313" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F313" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="G313" t="s">
-        <v>55</v>
-      </c>
-      <c r="H313" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C314">
         <v>0.4375</v>
@@ -9877,24 +9180,21 @@
         <v>0.80310000000000004</v>
       </c>
       <c r="E314" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="F314" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="G314" t="s">
-        <v>158</v>
-      </c>
-      <c r="H314" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C315">
         <v>0.58130000000000004</v>
@@ -9903,24 +9203,21 @@
         <v>0.85619999999999996</v>
       </c>
       <c r="E315" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F315" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="G315" t="s">
-        <v>64</v>
-      </c>
-      <c r="H315" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C316">
         <v>0.41249999999999998</v>
@@ -9929,24 +9226,21 @@
         <v>0.86560000000000004</v>
       </c>
       <c r="E316" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F316" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="G316" t="s">
-        <v>333</v>
-      </c>
-      <c r="H316" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C317">
         <v>0.49580000000000002</v>
@@ -9955,24 +9249,21 @@
         <v>0.3609</v>
       </c>
       <c r="E317" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F317" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="G317" t="s">
-        <v>335</v>
-      </c>
-      <c r="H317" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C318">
         <v>0.51039999999999996</v>
@@ -9981,24 +9272,21 @@
         <v>0.35160000000000002</v>
       </c>
       <c r="E318" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F318" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G318" t="s">
-        <v>336</v>
-      </c>
-      <c r="H318" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C319">
         <v>0.47289999999999999</v>
@@ -10007,24 +9295,21 @@
         <v>0.35</v>
       </c>
       <c r="E319" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F319" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G319" t="s">
-        <v>337</v>
-      </c>
-      <c r="H319" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C320">
         <v>0.52710000000000001</v>
@@ -10033,24 +9318,21 @@
         <v>0.36249999999999999</v>
       </c>
       <c r="E320" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="F320" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="G320" t="s">
-        <v>91</v>
-      </c>
-      <c r="H320" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C321">
         <v>0.44790000000000002</v>
@@ -10059,24 +9341,21 @@
         <v>0.3609</v>
       </c>
       <c r="E321" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="F321" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="G321" t="s">
-        <v>64</v>
-      </c>
-      <c r="H321" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C322">
         <v>0.51039999999999996</v>
@@ -10085,24 +9364,21 @@
         <v>0.37969999999999998</v>
       </c>
       <c r="E322" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F322" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G322" t="s">
-        <v>340</v>
-      </c>
-      <c r="H322" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C323">
         <v>0.47920000000000001</v>
@@ -10111,24 +9387,21 @@
         <v>0.37659999999999999</v>
       </c>
       <c r="E323" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F323" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G323" t="s">
-        <v>341</v>
-      </c>
-      <c r="H323" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C324">
         <v>0.5917</v>
@@ -10137,24 +9410,21 @@
         <v>0.44690000000000002</v>
       </c>
       <c r="E324" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="F324" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="G324" t="s">
-        <v>342</v>
-      </c>
-      <c r="H324" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C325">
         <v>0.37290000000000001</v>
@@ -10163,24 +9433,21 @@
         <v>0.43909999999999999</v>
       </c>
       <c r="E325" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F325" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G325" t="s">
-        <v>343</v>
-      </c>
-      <c r="H325" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C326">
         <v>0.70830000000000004</v>
@@ -10189,24 +9456,21 @@
         <v>0.51090000000000002</v>
       </c>
       <c r="E326" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="F326" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="G326" t="s">
-        <v>345</v>
-      </c>
-      <c r="H326" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C327">
         <v>0.2437</v>
@@ -10215,24 +9479,21 @@
         <v>0.50470000000000004</v>
       </c>
       <c r="E327" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="F327" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="G327" t="s">
-        <v>348</v>
-      </c>
-      <c r="H327" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C328">
         <v>0.83750000000000002</v>
@@ -10241,24 +9502,21 @@
         <v>0.55940000000000001</v>
       </c>
       <c r="E328" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="F328" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G328" t="s">
-        <v>350</v>
-      </c>
-      <c r="H328" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C329">
         <v>0.1062</v>
@@ -10267,24 +9525,21 @@
         <v>0.56089999999999995</v>
       </c>
       <c r="E329" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="F329" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="G329" t="s">
-        <v>352</v>
-      </c>
-      <c r="H329" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C330">
         <v>0.5292</v>
@@ -10293,24 +9548,21 @@
         <v>0.62809999999999999</v>
       </c>
       <c r="E330" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F330" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G330" t="s">
-        <v>353</v>
-      </c>
-      <c r="H330" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C331">
         <v>0.41249999999999998</v>
@@ -10319,24 +9571,21 @@
         <v>0.62660000000000005</v>
       </c>
       <c r="E331" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F331" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G331" t="s">
-        <v>354</v>
-      </c>
-      <c r="H331" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C332">
         <v>0.51459999999999995</v>
@@ -10345,24 +9594,21 @@
         <v>0.74380000000000002</v>
       </c>
       <c r="E332" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F332" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="G332" t="s">
-        <v>355</v>
-      </c>
-      <c r="H332" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C333">
         <v>0.42080000000000001</v>
@@ -10371,24 +9617,21 @@
         <v>0.73750000000000004</v>
       </c>
       <c r="E333" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="F333" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="G333" t="s">
-        <v>356</v>
-      </c>
-      <c r="H333" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C334">
         <v>0.48959999999999998</v>
@@ -10397,24 +9640,21 @@
         <v>0.87970000000000004</v>
       </c>
       <c r="E334" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F334" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G334" t="s">
-        <v>63</v>
-      </c>
-      <c r="H334" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C335">
         <v>0.43130000000000002</v>
@@ -10423,27 +9663,24 @@
         <v>0.87809999999999999</v>
       </c>
       <c r="E335" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F335" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="G335" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="H335" t="s">
-        <v>25</v>
-      </c>
-      <c r="I335" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C336">
         <v>0.49580000000000002</v>
@@ -10452,24 +9689,21 @@
         <v>0.9375</v>
       </c>
       <c r="E336" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F336" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="G336" t="s">
-        <v>328</v>
-      </c>
-      <c r="H336" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C337">
         <v>0.4229</v>
@@ -10478,24 +9712,21 @@
         <v>0.93440000000000001</v>
       </c>
       <c r="E337" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="F337" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="G337" t="s">
-        <v>362</v>
-      </c>
-      <c r="H337" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C338">
         <v>0.5</v>
@@ -10504,24 +9735,21 @@
         <v>0.2969</v>
       </c>
       <c r="E338" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F338" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G338" t="s">
-        <v>364</v>
-      </c>
-      <c r="H338" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C339">
         <v>0.52290000000000003</v>
@@ -10530,24 +9758,21 @@
         <v>0.28439999999999999</v>
       </c>
       <c r="E339" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F339" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G339" t="s">
-        <v>365</v>
-      </c>
-      <c r="H339" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C340">
         <v>0.48130000000000001</v>
@@ -10556,24 +9781,21 @@
         <v>0.2828</v>
       </c>
       <c r="E340" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F340" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G340" t="s">
-        <v>162</v>
-      </c>
-      <c r="H340" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C341">
         <v>0.54169999999999996</v>
@@ -10582,24 +9804,21 @@
         <v>0.29220000000000002</v>
       </c>
       <c r="E341" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="F341" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="G341" t="s">
-        <v>62</v>
-      </c>
-      <c r="H341" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C342">
         <v>0.46250000000000002</v>
@@ -10608,24 +9827,21 @@
         <v>0.28910000000000002</v>
       </c>
       <c r="E342" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="F342" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="G342" t="s">
-        <v>62</v>
-      </c>
-      <c r="H342" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C343">
         <v>0.51670000000000005</v>
@@ -10634,24 +9850,21 @@
         <v>0.31409999999999999</v>
       </c>
       <c r="E343" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F343" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="G343" t="s">
-        <v>368</v>
-      </c>
-      <c r="H343" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C344">
         <v>0.4854</v>
@@ -10660,24 +9873,21 @@
         <v>0.31409999999999999</v>
       </c>
       <c r="E344" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="F344" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="G344" t="s">
-        <v>125</v>
-      </c>
-      <c r="H344" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C345">
         <v>0.60209999999999997</v>
@@ -10686,24 +9896,21 @@
         <v>0.37809999999999999</v>
       </c>
       <c r="E345" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F345" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G345" t="s">
-        <v>370</v>
-      </c>
-      <c r="H345" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C346">
         <v>0.39369999999999999</v>
@@ -10712,24 +9919,21 @@
         <v>0.37340000000000001</v>
       </c>
       <c r="E346" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="F346" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="G346" t="s">
-        <v>83</v>
-      </c>
-      <c r="H346" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C347">
         <v>0.71879999999999999</v>
@@ -10738,24 +9942,21 @@
         <v>0.43440000000000001</v>
       </c>
       <c r="E347" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F347" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G347" t="s">
-        <v>373</v>
-      </c>
-      <c r="H347" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C348">
         <v>0.26040000000000002</v>
@@ -10764,24 +9965,21 @@
         <v>0.41560000000000002</v>
       </c>
       <c r="E348" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="F348" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="G348" t="s">
-        <v>376</v>
-      </c>
-      <c r="H348" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C349">
         <v>0.83330000000000004</v>
@@ -10790,24 +9988,21 @@
         <v>0.49530000000000002</v>
       </c>
       <c r="E349" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="F349" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="G349" t="s">
-        <v>378</v>
-      </c>
-      <c r="H349" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C350">
         <v>0.1479</v>
@@ -10816,24 +10011,21 @@
         <v>0.46560000000000001</v>
       </c>
       <c r="E350" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="F350" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="G350" t="s">
-        <v>380</v>
-      </c>
-      <c r="H350" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C351">
         <v>0.53959999999999997</v>
@@ -10842,24 +10034,21 @@
         <v>0.57030000000000003</v>
       </c>
       <c r="E351" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F351" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G351" t="s">
-        <v>381</v>
-      </c>
-      <c r="H351" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C352">
         <v>0.4229</v>
@@ -10868,24 +10057,21 @@
         <v>0.56559999999999999</v>
       </c>
       <c r="E352" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F352" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G352" t="s">
-        <v>312</v>
-      </c>
-      <c r="H352" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C353">
         <v>0.50829999999999997</v>
@@ -10894,24 +10080,21 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="E353" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F353" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="G353" t="s">
-        <v>130</v>
-      </c>
-      <c r="H353" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C354">
         <v>0.41670000000000001</v>
@@ -10920,24 +10103,21 @@
         <v>0.69689999999999996</v>
       </c>
       <c r="E354" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F354" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="G354" t="s">
-        <v>383</v>
-      </c>
-      <c r="H354" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C355">
         <v>0.49380000000000002</v>
@@ -10946,24 +10126,21 @@
         <v>0.81720000000000004</v>
       </c>
       <c r="E355" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F355" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="G355" t="s">
-        <v>127</v>
-      </c>
-      <c r="H355" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C356">
         <v>0.41249999999999998</v>
@@ -10972,24 +10149,21 @@
         <v>0.82030000000000003</v>
       </c>
       <c r="E356" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="F356" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="G356" t="s">
-        <v>385</v>
-      </c>
-      <c r="H356" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C357">
         <v>0.48130000000000001</v>
@@ -10998,24 +10172,21 @@
         <v>0.87339999999999995</v>
       </c>
       <c r="E357" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F357" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="G357" t="s">
-        <v>34</v>
-      </c>
-      <c r="H357" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C358">
         <v>0.4</v>
@@ -11024,16 +10195,13 @@
         <v>0.87339999999999995</v>
       </c>
       <c r="E358" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F358" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="G358" t="s">
-        <v>66</v>
-      </c>
-      <c r="H358" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
